--- a/StructureDefinition-onset-date-ext.xlsx
+++ b/StructureDefinition-onset-date-ext.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Stroke Onset Date</t>
+    <t>Stroke Symptom Onset Date Extension</t>
   </si>
   <si>
     <t>Status</t>
@@ -84,7 +84,16 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Captures the calendar date (value[x] = date) of symptom onset for the indexed stroke event when known, enabling calculation of onset-to-door metrics and adherence to time-sensitive pathways. Use alongside OnsetTimeExt when hour/minute precision is available; omit if onset is unknown or inapplicable.</t>
+    <t>Extension capturing the **calendar date** of symptom onset for the index stroke event.
+**Primary use-cases**
+- Compute onset-to-door and onset-to-treatment metrics when combined with encounter/treatment timestamps.
+- Support time-sensitive eligibility pathways when onset is known at least to the day.
+**When to use**
+- Use when onset date is known with reasonable confidence.
+- Use alongside `OnsetTimeExt` when time-of-day precision is available.
+- Omit if onset is unknown, only broadly estimated, or not applicable (e.g., certain in-hospital events may use different timing constructs).
+**FHIR placement**
+- `Condition.extension[onsetDate].valueDate`</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-onset-date-ext.xlsx
+++ b/StructureDefinition-onset-date-ext.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
